--- a/Excle Performance Score Card.xlsx
+++ b/Excle Performance Score Card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\Dashboard Project Blueprint 50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE00289-D124-4F50-903C-52CA18003D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC628DBE-4B4A-4384-AE7A-273DC8EEEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28C852A4-9649-44F7-9674-A6D3BCA7D40A}"/>
   </bookViews>
   <sheets>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="111">
   <si>
     <t>Quarter</t>
   </si>
@@ -460,24 +460,6 @@
     <t>Sustainability_Index_Score</t>
   </si>
   <si>
-    <t>If the previous quarter's carbon footprint reduction is 0%, then the score would be set to 0 to avoid the division by zero error.</t>
-  </si>
-  <si>
-    <t>So, for the provided data:</t>
-  </si>
-  <si>
-    <t>Current Quarter (CQ) 2023-Q1 Carbon Footprint Reduction: 2.5%</t>
-  </si>
-  <si>
-    <t>Previous Quarter (PQ) 2022-Q4 Carbon Footprint Reduction: 0%</t>
-  </si>
-  <si>
-    <t>Since the previous quarter's carbon footprint reduction is 0%, the score would be set to 0.</t>
-  </si>
-  <si>
-    <t>Therefore, the score for the Carbon_Footprint_Reduction for 2023-Q1 would be 0%.</t>
-  </si>
-  <si>
     <t>CDO_ScoreCard</t>
   </si>
   <si>
@@ -501,7 +483,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,12 +523,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -954,7 +930,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,6 +1120,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1195,25 +1180,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1221,6 +1188,210 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="204">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1344,6 +1515,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1373,8 +1612,181 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1400,6 +1812,40 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1467,6 +1913,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1496,8 +2010,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1532,8 +2050,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1568,11 +2090,210 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1587,6 +2308,74 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1619,8 +2408,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1655,8 +2448,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1691,11 +2488,210 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1710,6 +2706,278 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1835,6 +3103,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1979,13 +3315,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2021,6 +3350,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2040,32 +3376,162 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -2089,276 +3555,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2600,30 +3801,23 @@
     <dxf>
       <border>
         <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -2647,6 +3841,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2657,6 +3858,84 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2687,43 +3966,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2733,134 +3975,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2892,44 +4006,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2939,753 +4015,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -3717,7 +4046,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3733,124 +4064,46 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3876,293 +4129,7 @@
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -6082,130 +6049,130 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E822804F-1E48-421E-A301-1CF3AD57C44D}" name="Table35678924" displayName="Table35678924" ref="M4:P14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{E822804F-1E48-421E-A301-1CF3AD57C44D}" name="Table35678924" displayName="Table35678924" ref="M4:P14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="105" headerRowBorderDxfId="106" tableBorderDxfId="104" totalsRowBorderDxfId="103" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{E822804F-1E48-421E-A301-1CF3AD57C44D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2173ADFB-8A23-4A4C-8712-AB26A773ABB2}" name="Quarter" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{67DDDE37-4E14-4406-A372-D212606A0633}" name="Sales Growth Rate (%)" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{CADAAB92-2CFF-4322-A060-62038953F5ED}" name="Market Penetration Rate (%)" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{BD5B2F9B-34EE-4A21-821A-6ABDB1A58E81}" name="CLTV (in units)" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{2173ADFB-8A23-4A4C-8712-AB26A773ABB2}" name="Quarter" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{67DDDE37-4E14-4406-A372-D212606A0633}" name="Sales Growth Rate (%)" dataDxfId="101" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{CADAAB92-2CFF-4322-A060-62038953F5ED}" name="Market Penetration Rate (%)" dataDxfId="100" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{BD5B2F9B-34EE-4A21-821A-6ABDB1A58E81}" name="CLTV (in units)" dataDxfId="99" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E12CFF75-FA8E-479D-B71B-49B580C7A0CE}" name="Table356789" displayName="Table356789" ref="A1:D11" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E12CFF75-FA8E-479D-B71B-49B580C7A0CE}" name="Table356789" displayName="Table356789" ref="A1:D11" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{E12CFF75-FA8E-479D-B71B-49B580C7A0CE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{69C97C84-14E2-4172-80D0-0EAD8135EE15}" name="Quarter" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{889F245D-BA03-497F-9D2E-2E94CA759B6E}" name="Sales Growth Rate (%)" dataDxfId="112" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{726EAC48-F461-47B3-92D2-37326D0CEFCF}" name="Market Penetration Rate (%)" dataDxfId="111" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{BFCB8455-8AA6-47B0-95A6-1A707AF89B87}" name="CLTV (in units)" dataDxfId="110" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{69C97C84-14E2-4172-80D0-0EAD8135EE15}" name="Quarter" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{889F245D-BA03-497F-9D2E-2E94CA759B6E}" name="Sales Growth Rate (%)" dataDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{726EAC48-F461-47B3-92D2-37326D0CEFCF}" name="Market Penetration Rate (%)" dataDxfId="91" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{BFCB8455-8AA6-47B0-95A6-1A707AF89B87}" name="CLTV (in units)" dataDxfId="90" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{59C349BA-5090-4215-9F9B-28C02C49FD05}" name="Table35678131719" displayName="Table35678131719" ref="M4:P14" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{59C349BA-5090-4215-9F9B-28C02C49FD05}" name="Table35678131719" displayName="Table35678131719" ref="M4:P14" totalsRowShown="0" headerRowDxfId="89" dataDxfId="87" headerRowBorderDxfId="88" tableBorderDxfId="86" totalsRowBorderDxfId="85" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{59C349BA-5090-4215-9F9B-28C02C49FD05}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16919370-A278-4A76-9F44-BFBB36F3F4E0}" name="Quarter" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{450A6753-DD48-4793-B488-41F4BB75102C}" name="Product Development Cycle Time (months)" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{DBC34657-AC91-4B14-AAAC-6B17461E11E3}" name="Gross Margin per Product Line (%)" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B77E8DCA-E2EB-4602-BB7B-B1A6BE0F8901}" name="Product Return Rate (%)" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{16919370-A278-4A76-9F44-BFBB36F3F4E0}" name="Quarter" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{450A6753-DD48-4793-B488-41F4BB75102C}" name="Product Development Cycle Time (months)" dataDxfId="83" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DBC34657-AC91-4B14-AAAC-6B17461E11E3}" name="Gross Margin per Product Line (%)" dataDxfId="82" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B77E8DCA-E2EB-4602-BB7B-B1A6BE0F8901}" name="Product Return Rate (%)" dataDxfId="81" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB47766A-BE3E-439D-AD9C-25A53EF13EB1}" name="Table35678910" displayName="Table35678910" ref="A1:D11" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AB47766A-BE3E-439D-AD9C-25A53EF13EB1}" name="Table35678910" displayName="Table35678910" ref="A1:D11" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" totalsRowBorderDxfId="76" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{AB47766A-BE3E-439D-AD9C-25A53EF13EB1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F55FE6EA-FDEA-48B4-A731-37B3B1D0F872}" name="Quarter" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{578ABA56-4AE2-429F-A871-E4BD8FEC4D1A}" name="Product Development Cycle Time (months)" dataDxfId="103" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{56BF34D6-72BF-4C10-899D-7D5AF072E95A}" name="Gross Margin per Product Line (%)" dataDxfId="102" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{5D7ECC8E-A13F-44B3-90EF-14B58F8B4DF0}" name="Product Return Rate (%)" dataDxfId="101" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{F55FE6EA-FDEA-48B4-A731-37B3B1D0F872}" name="Quarter" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{578ABA56-4AE2-429F-A871-E4BD8FEC4D1A}" name="Product Development Cycle Time (months)" dataDxfId="74" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{56BF34D6-72BF-4C10-899D-7D5AF072E95A}" name="Gross Margin per Product Line (%)" dataDxfId="73" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{5D7ECC8E-A13F-44B3-90EF-14B58F8B4DF0}" name="Product Return Rate (%)" dataDxfId="72" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0DCF60EC-F838-4723-B48B-2EEB14796C35}" name="Table35678131720" displayName="Table35678131720" ref="M4:P14" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0DCF60EC-F838-4723-B48B-2EEB14796C35}" name="Table35678131720" displayName="Table35678131720" ref="M4:P14" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{0DCF60EC-F838-4723-B48B-2EEB14796C35}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{09D0CBB1-D295-4ACF-A9A9-91183BB57D46}" name="Quarter" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3BBFFCE2-0612-41F7-A152-4C200B889841}" name="NPS" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{2CC0484D-0D9B-405A-85AC-509B29F83BF5}" name="CSAT (%)" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{FFCE7836-5677-4728-925E-98A304372741}" name="Customer Support Response Time (hours)" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{09D0CBB1-D295-4ACF-A9A9-91183BB57D46}" name="Quarter" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{3BBFFCE2-0612-41F7-A152-4C200B889841}" name="NPS" dataDxfId="65" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{2CC0484D-0D9B-405A-85AC-509B29F83BF5}" name="CSAT (%)" dataDxfId="64" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{FFCE7836-5677-4728-925E-98A304372741}" name="Customer Support Response Time (hours)" dataDxfId="63" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D83828BC-ACAD-4B67-A0C5-9A38D9C3A9C1}" name="Table3567891011" displayName="Table3567891011" ref="A1:D11" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D83828BC-ACAD-4B67-A0C5-9A38D9C3A9C1}" name="Table3567891011" displayName="Table3567891011" ref="A1:D11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{D83828BC-ACAD-4B67-A0C5-9A38D9C3A9C1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F78AC819-0240-4EEE-95B2-FEA1321FDC84}" name="Quarter" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{6A3BB5DF-3AE9-4AEB-8F5F-9882DA59CF88}" name="NPS" dataDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{1945D974-CB96-41FB-8D69-570337140169}" name="CSAT (%)" dataDxfId="93" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{DF7D2EF1-9F90-4B21-94A0-D29E6579A5E5}" name="Customer Support Response Time (hours)" dataDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{F78AC819-0240-4EEE-95B2-FEA1321FDC84}" name="Quarter" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{6A3BB5DF-3AE9-4AEB-8F5F-9882DA59CF88}" name="NPS" dataDxfId="56" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{1945D974-CB96-41FB-8D69-570337140169}" name="CSAT (%)" dataDxfId="55" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{DF7D2EF1-9F90-4B21-94A0-D29E6579A5E5}" name="Customer Support Response Time (hours)" dataDxfId="54" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2A9E589C-CB0B-4506-AA3B-2401BED5E2BF}" name="Table35678131721" displayName="Table35678131721" ref="M4:P14" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{2A9E589C-CB0B-4506-AA3B-2401BED5E2BF}" name="Table35678131721" displayName="Table35678131721" ref="M4:P14" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{2A9E589C-CB0B-4506-AA3B-2401BED5E2BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0A89F724-DA9D-4599-A310-9FA8EE7C99B6}" name="Quarter" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{27E8C60D-F6E2-4E2E-BAEA-B397C1FD78BD}" name="Employee Turnover Rate (%)" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{48941804-AEBC-48B7-A65C-DA35922685C7}" name="Time to Fill Positions (days)" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7B26673B-6723-467D-90F7-FE36274AACE4}" name="Employee Satisfaction Index" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{0A89F724-DA9D-4599-A310-9FA8EE7C99B6}" name="Quarter" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{27E8C60D-F6E2-4E2E-BAEA-B397C1FD78BD}" name="Employee Turnover Rate (%)" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{48941804-AEBC-48B7-A65C-DA35922685C7}" name="Time to Fill Positions (days)" dataDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7B26673B-6723-467D-90F7-FE36274AACE4}" name="Employee Satisfaction Index" dataDxfId="45" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D66A0A5-8593-451D-87CD-01837076B551}" name="Table356789101112" displayName="Table356789101112" ref="A1:D11" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D66A0A5-8593-451D-87CD-01837076B551}" name="Table356789101112" displayName="Table356789101112" ref="A1:D11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{0D66A0A5-8593-451D-87CD-01837076B551}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4AE49EE7-30C6-4190-ABDC-EBC5A168F18F}" name="Quarter" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{D57A56C5-B4F8-4821-8C0E-219010CF2861}" name="Employee Turnover Rate (%)" dataDxfId="85" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{528676F1-6961-4758-9675-5D49EBAEFDD1}" name="Time to Fill Positions (days)" dataDxfId="84" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{3730256E-0399-45FC-B04D-C97C4D8C9900}" name="Employee Satisfaction Index" dataDxfId="83" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4AE49EE7-30C6-4190-ABDC-EBC5A168F18F}" name="Quarter" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{D57A56C5-B4F8-4821-8C0E-219010CF2861}" name="Employee Turnover Rate (%)" dataDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{528676F1-6961-4758-9675-5D49EBAEFDD1}" name="Time to Fill Positions (days)" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{3730256E-0399-45FC-B04D-C97C4D8C9900}" name="Employee Satisfaction Index" dataDxfId="36" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{34C65CF4-E046-412C-8C3C-8D1F1BAA8814}" name="Table35678131722" displayName="Table35678131722" ref="M4:P14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{34C65CF4-E046-412C-8C3C-8D1F1BAA8814}" name="Table35678131722" displayName="Table35678131722" ref="M4:P14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{34C65CF4-E046-412C-8C3C-8D1F1BAA8814}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CE8BA3D8-2A51-4E53-8453-74BA20F847E1}" name="Quarter" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D54D49B6-F79B-477B-A973-207678CEA05C}" name="Carbon Footprint Reduction (%)" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{D572FF1F-7CC4-4DA1-B320-D07AC241C9D0}" name="Percentage of Sustainable Materials Used (%)" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{6AF13D12-CD4A-4AF8-85B5-E2A552622276}" name="Sustainability Index Score" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{CE8BA3D8-2A51-4E53-8453-74BA20F847E1}" name="Quarter" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{D54D49B6-F79B-477B-A973-207678CEA05C}" name="Carbon Footprint Reduction (%)" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{D572FF1F-7CC4-4DA1-B320-D07AC241C9D0}" name="Percentage of Sustainable Materials Used (%)" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{6AF13D12-CD4A-4AF8-85B5-E2A552622276}" name="Sustainability Index Score" dataDxfId="27" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F1D2331A-9771-4DDE-BE34-C4C828FA0938}" name="Table35678910111213" displayName="Table35678910111213" ref="A1:D11" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F1D2331A-9771-4DDE-BE34-C4C828FA0938}" name="Table35678910111213" displayName="Table35678910111213" ref="A1:D11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{F1D2331A-9771-4DDE-BE34-C4C828FA0938}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BBC802F2-F01E-4BB9-A9A7-30CF6928F2F5}" name="Quarter" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{0F7F6B09-30F0-4FA9-B293-CAECAE2B630E}" name="Carbon Footprint Reduction (%)" dataDxfId="76" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{924845CD-D70E-4E9B-8FEB-B8AA52435ED7}" name="Percentage of Sustainable Materials Used (%)" dataDxfId="75" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{8B7EAE8E-5A58-407C-B280-8F98ABE43787}" name="Sustainability Index Score" dataDxfId="74" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BBC802F2-F01E-4BB9-A9A7-30CF6928F2F5}" name="Quarter" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0F7F6B09-30F0-4FA9-B293-CAECAE2B630E}" name="Carbon Footprint Reduction (%)" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{924845CD-D70E-4E9B-8FEB-B8AA52435ED7}" name="Percentage of Sustainable Materials Used (%)" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{8B7EAE8E-5A58-407C-B280-8F98ABE43787}" name="Sustainability Index Score" dataDxfId="18" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6226,26 +6193,26 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{46CCFF1B-5B1B-4DA2-BAC9-C4072A34FC46}" name="Table35678131723" displayName="Table35678131723" ref="M4:P14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{46CCFF1B-5B1B-4DA2-BAC9-C4072A34FC46}" name="Table35678131723" displayName="Table35678131723" ref="M4:P14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13" dataCellStyle="Comma">
   <autoFilter ref="M4:P14" xr:uid="{46CCFF1B-5B1B-4DA2-BAC9-C4072A34FC46}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6B8D10F9-899F-4BDF-A978-99C42185957E}" name="Quarter" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CB7E329A-4A56-4CD7-A34C-9F703615EBEC}" name="Accuracy of Sales Forecasts (%)" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{4F5D91F2-CD34-41D6-B2DC-38AD9A6C9712}" name="Data Quality Score" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{46D406B1-8244-45B2-BACB-E0977DEB6EE8}" name="Compliance Rate with Data Protection Laws (%)" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{6B8D10F9-899F-4BDF-A978-99C42185957E}" name="Quarter" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{CB7E329A-4A56-4CD7-A34C-9F703615EBEC}" name="Accuracy of Sales Forecasts (%)" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{4F5D91F2-CD34-41D6-B2DC-38AD9A6C9712}" name="Data Quality Score" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{46D406B1-8244-45B2-BACB-E0977DEB6EE8}" name="Compliance Rate with Data Protection Laws (%)" dataDxfId="9" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F04C7780-7D8B-4703-86B2-769BF90A6F56}" name="Table3567891011121314" displayName="Table3567891011121314" ref="A1:D11" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F04C7780-7D8B-4703-86B2-769BF90A6F56}" name="Table3567891011121314" displayName="Table3567891011121314" ref="A1:D11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" dataCellStyle="Comma">
   <autoFilter ref="A1:D11" xr:uid="{F04C7780-7D8B-4703-86B2-769BF90A6F56}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D0B07B7A-D4A6-44C4-AE3C-6BB21ED22856}" name="Quarter" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{41F8ADF9-0CB1-42B9-B3E9-CFB613768B38}" name="Accuracy of Sales Forecasts (%)" dataDxfId="67" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{58852E2E-7DA3-4611-81FD-2A835610BE85}" name="Data Quality Score" dataDxfId="66" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{718C41E7-2EBD-469B-8391-8759ECC699D5}" name="Compliance Rate with Data Protection Laws (%)" dataDxfId="65" dataCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{D0B07B7A-D4A6-44C4-AE3C-6BB21ED22856}" name="Quarter" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{41F8ADF9-0CB1-42B9-B3E9-CFB613768B38}" name="Accuracy of Sales Forecasts (%)" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{58852E2E-7DA3-4611-81FD-2A835610BE85}" name="Data Quality Score" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{718C41E7-2EBD-469B-8391-8759ECC699D5}" name="Compliance Rate with Data Protection Laws (%)" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6330,30 +6297,30 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{96FB240F-5B8B-4DBF-B9E7-A72CC1253C5B}" name="Table3567813" displayName="Table3567813" ref="M4:R14" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{96FB240F-5B8B-4DBF-B9E7-A72CC1253C5B}" name="Table3567813" displayName="Table3567813" ref="M4:R14" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125" dataCellStyle="Comma">
   <autoFilter ref="M4:R14" xr:uid="{E2415050-2C93-436E-8247-FA28C44BB2D8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{429C3EA0-B627-42EF-88FB-5B4CF2CE557D}" name="Quarter" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{585C7E1B-B5E3-4705-A9A8-9DE70D741D50}" name="App Downloads" dataDxfId="58" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{85ED7BD4-C9C9-439C-A0CC-AF6B46B6563D}" name="Active Users" dataDxfId="57" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7D94FDDA-E969-4044-A1BC-635E9BEEC0A4}" name="Website Uptime (%)" dataDxfId="56" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{8F3A0658-9492-4E13-9835-299989CBFCE9}" name="Website Speed (sec)" dataDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{0F484124-7E2A-466C-8685-174D52B7E750}" name="Tech Stack ROI" dataDxfId="54" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{429C3EA0-B627-42EF-88FB-5B4CF2CE557D}" name="Quarter" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{585C7E1B-B5E3-4705-A9A8-9DE70D741D50}" name="App Downloads" dataDxfId="123" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{85ED7BD4-C9C9-439C-A0CC-AF6B46B6563D}" name="Active Users" dataDxfId="122" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7D94FDDA-E969-4044-A1BC-635E9BEEC0A4}" name="Website Uptime (%)" dataDxfId="121" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{8F3A0658-9492-4E13-9835-299989CBFCE9}" name="Website Speed (sec)" dataDxfId="120" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{0F484124-7E2A-466C-8685-174D52B7E750}" name="Tech Stack ROI" dataDxfId="119" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E2415050-2C93-436E-8247-FA28C44BB2D8}" name="Table35678" displayName="Table35678" ref="A1:F11" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E2415050-2C93-436E-8247-FA28C44BB2D8}" name="Table35678" displayName="Table35678" ref="A1:F11" totalsRowShown="0" headerRowDxfId="118" dataDxfId="116" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="114" dataCellStyle="Comma">
   <autoFilter ref="A1:F11" xr:uid="{E2415050-2C93-436E-8247-FA28C44BB2D8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B1789716-2DDA-412F-98E9-F1790FB5F2C7}" name="Quarter" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{F5FF63A5-4450-47E6-90CC-886C22ECD7F4}" name="App Downloads" dataDxfId="123" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{979839D9-9744-4B3A-9B4B-445FAAEEB3C2}" name="Active Users" dataDxfId="122" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7CE884CB-6388-4DD8-A1F9-695752FC5245}" name="Website Uptime (%)" dataDxfId="121" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{67E4B2A2-434F-4030-A895-ED79140CA77F}" name="Website Speed (sec)" dataDxfId="120" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{0469E086-F186-4050-AE0A-3A92BEBA5210}" name="Tech Stack ROI" dataDxfId="119" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{B1789716-2DDA-412F-98E9-F1790FB5F2C7}" name="Quarter" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{F5FF63A5-4450-47E6-90CC-886C22ECD7F4}" name="App Downloads" dataDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{979839D9-9744-4B3A-9B4B-445FAAEEB3C2}" name="Active Users" dataDxfId="111" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7CE884CB-6388-4DD8-A1F9-695752FC5245}" name="Website Uptime (%)" dataDxfId="110" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{67E4B2A2-434F-4030-A895-ED79140CA77F}" name="Website Speed (sec)" dataDxfId="109" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{0469E086-F186-4050-AE0A-3A92BEBA5210}" name="Tech Stack ROI" dataDxfId="108" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6624,11 +6591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E15B2A-A6DE-48F4-9FCE-54DF9BED061A}">
   <dimension ref="C2:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6641,78 +6608,78 @@
   <sheetData>
     <row r="2" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="59" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="89" t="s">
+      <c r="N3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="89" t="s">
+      <c r="U3" s="94" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:21" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="95"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="61" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89" t="s">
+      <c r="H4" s="96"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="89" t="s">
+      <c r="T4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="94" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6858,7 +6825,7 @@
       </c>
     </row>
     <row r="8" spans="3:21" ht="3.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="65" t="s">
         <v>1</v>
       </c>
@@ -6874,8 +6841,8 @@
         <v>0.06</v>
       </c>
       <c r="H9" s="50">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333348</v>
+        <f ca="1">E9-F9</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>11</v>
@@ -6905,7 +6872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="63" t="s">
         <v>2</v>
       </c>
@@ -6920,9 +6887,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.17</v>
       </c>
-      <c r="H10" s="47">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8823529411764497E-2</v>
+      <c r="H10" s="50">
+        <f ca="1">E10-F10</f>
+        <v>9.9999999999999811E-3</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>12</v>
@@ -6952,7 +6919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="63" t="s">
         <v>3</v>
       </c>
@@ -6967,9 +6934,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.74</v>
       </c>
-      <c r="H11" s="47">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7027027027026973E-2</v>
+      <c r="H11" s="50">
+        <f ca="1">E11-F11</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>13</v>
@@ -7014,9 +6981,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.89</v>
       </c>
-      <c r="H12" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1235955056179803E-2</v>
+      <c r="H12" s="50">
+        <f ca="1">E12-F12</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>14</v>
@@ -7135,6 +7102,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="H3:H4"/>
@@ -7142,11 +7114,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F4" xr:uid="{4480C497-6FE9-40A6-8D02-0672797679F3}">
@@ -7406,7 +7373,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7420,10 +7387,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -7432,7 +7399,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -7449,15 +7416,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -7472,23 +7439,23 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="89" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>0.25</v>
       </c>
       <c r="E6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F6" s="38">
-        <f ca="1">D6/E6-1</f>
-        <v>0.25</v>
+        <f ca="1">D6-E6</f>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -7504,23 +7471,23 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.18</v>
       </c>
       <c r="E7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.16</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
-        <v>0.125</v>
+        <f ca="1">D7-E7</f>
+        <v>1.999999999999999E-2</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -7536,22 +7503,22 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="89" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>560</v>
       </c>
       <c r="E8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>545</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="F7:F8" ca="1" si="1">D8/E8-1</f>
         <v>2.7522935779816571E-2</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -7850,7 +7817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7864,10 +7831,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -7876,7 +7843,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -7893,15 +7860,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -7916,23 +7883,23 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="90" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>0.08</v>
       </c>
       <c r="E6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.09</v>
       </c>
       <c r="F6" s="38">
-        <f ca="1">D6/E6-1</f>
-        <v>-0.11111111111111105</v>
+        <f ca="1">D6-E6</f>
+        <v>-9.999999999999995E-3</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -7948,22 +7915,22 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="E7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
+        <f ca="1">D7-E7</f>
         <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -7980,23 +7947,23 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="91" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E8" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.14285714285714302</v>
+        <f ca="1">D8-E8</f>
+        <v>-5.0000000000000044E-3</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>11</v>
@@ -8294,7 +8261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8307,10 +8274,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -8319,7 +8286,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -8336,15 +8303,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -8359,23 +8326,23 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="90" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>0.78</v>
       </c>
       <c r="E6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.76</v>
       </c>
       <c r="F6" s="38">
-        <f ca="1">D6/E6-1</f>
-        <v>2.6315789473684292E-2</v>
+        <f ca="1">D6-E6</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -8391,23 +8358,23 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="90" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.84</v>
       </c>
       <c r="E7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.83</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
-        <v>1.2048192771084265E-2</v>
+        <f ca="1">D7-E7</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -8423,23 +8390,23 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="91" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="109">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+      <c r="D8" s="92">
+        <f t="shared" ca="1" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="E8" s="109">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+      <c r="E8" s="92">
+        <f t="shared" ca="1" si="0"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>-7.6923076923076983E-2</v>
+        <f ca="1">D8-E8</f>
+        <v>-2.5000000000000022E-3</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>11</v>
@@ -8737,7 +8704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8750,10 +8717,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -8762,7 +8729,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -8779,15 +8746,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -8802,18 +8769,18 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="89" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>6</v>
       </c>
       <c r="E6" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="F6" s="38">
@@ -8834,22 +8801,22 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="89" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="E7" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
+        <f t="shared" ref="F7:F8" ca="1" si="1">D7/E7-1</f>
         <v>-5.1282051282051322E-2</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -8866,22 +8833,22 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="E8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>76</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.6315789473684292E-2</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -9176,11 +9143,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074B656-2578-4439-9A84-5FB14BAE6290}">
-  <dimension ref="B4:P21"/>
+  <dimension ref="B4:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="B2" workbookViewId="1">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="B1" workbookViewId="1">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9193,10 +9160,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -9205,7 +9172,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -9222,15 +9189,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -9251,21 +9218,19 @@
       <c r="C6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="109">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+      <c r="D6" s="92">
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="110" t="e">
-        <f ca="1">D6/E6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="111">
-        <v>0</v>
-      </c>
+      <c r="F6" s="111">
+        <f ca="1">D6-E6</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="93"/>
       <c r="M6" s="4" t="s">
         <v>9</v>
       </c>
@@ -9287,16 +9252,16 @@
         <v>105</v>
       </c>
       <c r="D7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.6</v>
       </c>
       <c r="E7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
-        <v>0.19999999999999996</v>
+      <c r="F7" s="111">
+        <f ca="1">D7-E7</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -9319,15 +9284,15 @@
         <v>106</v>
       </c>
       <c r="D8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>70</v>
       </c>
       <c r="E8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="F7:F8" ca="1" si="1">D8/E8-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -9385,10 +9350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="B12" s="112" t="s">
-        <v>107</v>
-      </c>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
@@ -9416,10 +9378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="B14" s="112" t="s">
-        <v>108</v>
-      </c>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M14" s="8" t="s">
         <v>17</v>
       </c>
@@ -9431,29 +9390,6 @@
       </c>
       <c r="P14" s="11">
         <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="113"/>
-    </row>
-    <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="114" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="114" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="112" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -9993,7 +9929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10006,11 +9942,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>113</v>
+      <c r="B4" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>56</v>
@@ -10018,7 +9954,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="109" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -10035,15 +9971,15 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="109"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -10062,19 +9998,19 @@
         <v>48</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E8" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>0.78</v>
       </c>
       <c r="E6" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.76</v>
       </c>
       <c r="F6" s="38">
-        <f t="shared" ref="F6:F7" ca="1" si="0">D6/E6-1</f>
-        <v>2.6315789473684292E-2</v>
+        <f ca="1">D6-E6</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -10094,19 +10030,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.85</v>
       </c>
       <c r="E7" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.0303030303030276E-2</v>
+        <f ca="1">D7-E7</f>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
@@ -10126,19 +10062,19 @@
         <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.94</v>
       </c>
       <c r="E8" s="44">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.93</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="1">D8/E8-1</f>
-        <v>1.0752688172043001E-2</v>
+        <f ca="1">D8-E8</f>
+        <v>9.9999999999998979E-3</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>11</v>
@@ -10438,7 +10374,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10452,10 +10388,10 @@
   <sheetData>
     <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="103" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="59" t="s">
@@ -10464,20 +10400,20 @@
       <c r="E5" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="101" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="95"/>
-      <c r="C6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="69" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="102"/>
       <c r="Q6" s="1" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10551,7 @@
         <v>0.9</v>
       </c>
       <c r="G10" s="48">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">D10-E10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="4" t="s">
@@ -10965,11 +10901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2683B9AA-F866-4D83-B9A6-71496DB4C62E}">
   <dimension ref="B3:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10984,10 +10920,10 @@
   <sheetData>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="59" t="s">
@@ -10996,20 +10932,20 @@
       <c r="E4" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="101" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101"/>
-      <c r="C5" s="103"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="69" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="97"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
@@ -11027,8 +10963,8 @@
         <v>0.22</v>
       </c>
       <c r="G6" s="46">
-        <f ca="1">D6/E6-1</f>
-        <v>4.5454545454545414E-2</v>
+        <f ca="1">D6-E6</f>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11046,9 +10982,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="G7" s="47">
-        <f t="shared" ref="G7:G8" ca="1" si="1">D7/E7-1</f>
-        <v>5.8823529411764497E-2</v>
+      <c r="G7" s="46">
+        <f ca="1">D7-E7</f>
+        <v>9.9999999999999811E-3</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>0</v>
@@ -11079,7 +11015,7 @@
         <v>110</v>
       </c>
       <c r="G8" s="48">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="G7:G8" ca="1" si="1">D8/E8-1</f>
         <v>4.5454545454545414E-2</v>
       </c>
       <c r="Q8" s="4" t="s">
@@ -11420,7 +11356,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11434,10 +11370,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -11446,20 +11382,20 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="15" t="s">
         <v>0</v>
       </c>
@@ -12081,7 +12017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12096,10 +12032,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="66" t="s">
@@ -12108,7 +12044,7 @@
       <c r="E4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="110" t="s">
         <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -12131,15 +12067,15 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="110"/>
       <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
@@ -12167,11 +12103,11 @@
         <v>84</v>
       </c>
       <c r="D6" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
+        <f t="shared" ref="D6:E10" ca="1" si="0">SUMIFS(INDIRECT($C6),Quarter,D$5)</f>
         <v>18000</v>
       </c>
       <c r="E6" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C6),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16000</v>
       </c>
       <c r="F6" s="38">
@@ -12205,15 +12141,15 @@
         <v>82</v>
       </c>
       <c r="D7" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10000</v>
       </c>
       <c r="E7" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C7),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8750</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" ref="F7:F10" ca="1" si="0">D7/E7-1</f>
+        <f t="shared" ref="F7:F10" ca="1" si="1">D7/E7-1</f>
         <v>0.14285714285714279</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -12243,15 +12179,15 @@
         <v>86</v>
       </c>
       <c r="D8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.99400000000000011</v>
       </c>
       <c r="E8" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C8),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0.99299999999999999</v>
       </c>
       <c r="F8" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.0070493454179541E-3</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -12281,15 +12217,15 @@
         <v>85</v>
       </c>
       <c r="D9" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C9),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E9" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C9),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1.7</v>
       </c>
       <c r="F9" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-5.8823529411764608E-2</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -12319,15 +12255,15 @@
         <v>87</v>
       </c>
       <c r="D10" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C10),Quarter,D$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.2</v>
       </c>
       <c r="E10" s="84">
-        <f ca="1">SUMIFS(INDIRECT($C10),Quarter,E$5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.9</v>
       </c>
       <c r="F10" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="M10" s="4" t="s">
